--- a/metrics/metrics.xlsx
+++ b/metrics/metrics.xlsx
@@ -525,10 +525,10 @@
         <v>0.91</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000250867207845052</v>
+        <v>0.0003843084971110026</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0008145941947894968</v>
+        <v>0.0009096592268442882</v>
       </c>
     </row>
     <row r="3">
@@ -566,10 +566,10 @@
         <v>0.7</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0002462402979532877</v>
+        <v>0.0004873259862263997</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0007360065367065108</v>
+        <v>0.001108637858770423</v>
       </c>
     </row>
     <row r="4">
@@ -607,10 +607,10 @@
         <v>0.9</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0003761752446492513</v>
+        <v>0.0004634952545166016</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0007927476455499827</v>
+        <v>0.001073413501575585</v>
       </c>
     </row>
     <row r="5">
@@ -648,10 +648,10 @@
         <v>0.43</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0006730397542317707</v>
+        <v>0.0003620990117390951</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001678593814233041</v>
+        <v>0.001067185821709344</v>
       </c>
     </row>
     <row r="6">
@@ -689,10 +689,10 @@
         <v>0.91</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0006383625666300455</v>
+        <v>0.0002929830551147461</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001433209799609187</v>
+        <v>0.00106571506417733</v>
       </c>
     </row>
     <row r="7">
@@ -730,10 +730,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000567159652709961</v>
+        <v>0.0002533753712972005</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001329224763016462</v>
+        <v>0.0010191457720258</v>
       </c>
     </row>
     <row r="8">
@@ -771,10 +771,10 @@
         <v>0.91</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0007396793365478516</v>
+        <v>0.0003472328186035156</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001663882001561482</v>
+        <v>0.001234440089530224</v>
       </c>
     </row>
     <row r="9">
@@ -812,10 +812,10 @@
         <v>0.58</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0004286702473958333</v>
+        <v>0.0004710817337036133</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001248381183686934</v>
+        <v>0.001449393739508116</v>
       </c>
     </row>
     <row r="10">
@@ -835,28 +835,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.16</v>
+        <v>0.64</v>
       </c>
       <c r="E10" t="n">
-        <v>0.38</v>
+        <v>0.66</v>
       </c>
       <c r="F10" t="n">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="G10" t="n">
-        <v>0.16</v>
+        <v>0.64</v>
       </c>
       <c r="H10" t="n">
-        <v>0.28</v>
+        <v>0.66</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3</v>
+        <v>0.62</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0007311852773030599</v>
+        <v>0.0002113739649454753</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001576816589750849</v>
+        <v>0.0007364959984541859</v>
       </c>
     </row>
     <row r="11">
@@ -876,28 +876,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.18</v>
+        <v>0.62</v>
       </c>
       <c r="E11" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
       <c r="G11" t="n">
-        <v>0.18</v>
+        <v>0.62</v>
       </c>
       <c r="H11" t="n">
-        <v>0.27</v>
+        <v>0.6</v>
       </c>
       <c r="I11" t="n">
-        <v>0.29</v>
+        <v>0.55</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0005881722768147787</v>
+        <v>0.0004520241419474283</v>
       </c>
       <c r="K11" t="n">
-        <v>0.00141883672069208</v>
+        <v>0.001261767416458647</v>
       </c>
     </row>
     <row r="12">
@@ -917,28 +917,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.18</v>
+        <v>0.62</v>
       </c>
       <c r="E12" t="n">
-        <v>0.44</v>
+        <v>0.64</v>
       </c>
       <c r="F12" t="n">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
       <c r="G12" t="n">
-        <v>0.18</v>
+        <v>0.62</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3</v>
+        <v>0.64</v>
       </c>
       <c r="I12" t="n">
-        <v>0.29</v>
+        <v>0.59</v>
       </c>
       <c r="J12" t="n">
-        <v>0.000425419807434082</v>
+        <v>0.0002883481979370117</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00102455407564041</v>
+        <v>0.00101623317267056</v>
       </c>
     </row>
     <row r="13">
@@ -958,28 +958,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>0.24</v>
+        <v>0.5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
       <c r="G13" t="n">
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I13" t="n">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0005228042602539062</v>
+        <v>0.0001073010762532552</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001269738184055447</v>
+        <v>0.0001825737222961035</v>
       </c>
     </row>
     <row r="14">
@@ -999,28 +999,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.14</v>
+        <v>0.66</v>
       </c>
       <c r="E14" t="n">
-        <v>0.44</v>
+        <v>0.66</v>
       </c>
       <c r="F14" t="n">
-        <v>0.48</v>
+        <v>0.66</v>
       </c>
       <c r="G14" t="n">
-        <v>0.14</v>
+        <v>0.66</v>
       </c>
       <c r="H14" t="n">
-        <v>0.31</v>
+        <v>0.66</v>
       </c>
       <c r="I14" t="n">
-        <v>0.27</v>
+        <v>0.58</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0003286329905192057</v>
+        <v>0.0006653896967569986</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001128832156582251</v>
+        <v>0.001681343287450271</v>
       </c>
     </row>
     <row r="15">
@@ -1040,28 +1040,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.14</v>
+        <v>0.6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
       <c r="G15" t="n">
-        <v>0.14</v>
+        <v>0.6</v>
       </c>
       <c r="H15" t="n">
-        <v>0.28</v>
+        <v>0.59</v>
       </c>
       <c r="I15" t="n">
-        <v>0.24</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0006459474563598633</v>
+        <v>0.0003523763020833333</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001562500142628974</v>
+        <v>0.001231394787186574</v>
       </c>
     </row>
     <row r="16">
@@ -1081,28 +1081,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.14</v>
+        <v>0.66</v>
       </c>
       <c r="E16" t="n">
-        <v>0.44</v>
+        <v>0.66</v>
       </c>
       <c r="F16" t="n">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="G16" t="n">
-        <v>0.14</v>
+        <v>0.66</v>
       </c>
       <c r="H16" t="n">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="I16" t="n">
-        <v>0.28</v>
+        <v>0.59</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0002556943893432617</v>
+        <v>0.0006783835093180338</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001019640705724766</v>
+        <v>0.001677821813231462</v>
       </c>
     </row>
     <row r="17">
@@ -1122,28 +1122,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.12</v>
+        <v>0.54</v>
       </c>
       <c r="E17" t="n">
-        <v>0.22</v>
+        <v>0.6</v>
       </c>
       <c r="F17" t="n">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="G17" t="n">
-        <v>0.12</v>
+        <v>0.54</v>
       </c>
       <c r="H17" t="n">
-        <v>0.16</v>
+        <v>0.53</v>
       </c>
       <c r="I17" t="n">
-        <v>0.18</v>
+        <v>0.48</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0003842767079671223</v>
+        <v>0.0005629285176595052</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001232985961060852</v>
+        <v>0.001552440271702503</v>
       </c>
     </row>
   </sheetData>
